--- a/8.기능정리.xlsx
+++ b/8.기능정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50664"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정리" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>기능 정리</t>
   </si>
@@ -379,6 +379,135 @@
   </si>
   <si>
     <t xml:space="preserve">   유저 서약 수정</t>
+  </si>
+  <si>
+    <t>본인인증요청(핸드폰)</t>
+  </si>
+  <si>
+    <t>본인인증요청(이메일)</t>
+  </si>
+  <si>
+    <t>본인인증번호확인(핸드폰)</t>
+  </si>
+  <si>
+    <t>본인인증번호확인(이메일)</t>
+  </si>
+  <si>
+    <t>본인인증번호확인</t>
+  </si>
+  <si>
+    <t>비밀번호 유효성 확인 (Front에서 해결)</t>
+  </si>
+  <si>
+    <t>핸드폰 유효성 확인(본인인증요청과 동일)</t>
+  </si>
+  <si>
+    <t>이메일 유효성 확인(본인인증요청과 동일)</t>
+  </si>
+  <si>
+    <t>특정 메모 검색 (Front에서 해결)</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+  </si>
+  <si>
+    <t>카테고리 생성</t>
+  </si>
+  <si>
+    <t>카테고리 수정</t>
+  </si>
+  <si>
+    <t>카테고리 삭제</t>
+  </si>
+  <si>
+    <t>카테고리 검색</t>
+  </si>
+  <si>
+    <t>특정 메모 조회</t>
+  </si>
+  <si>
+    <t>공유 메모 조회</t>
+  </si>
+  <si>
+    <t>그룹 메모 조회</t>
+  </si>
+  <si>
+    <t>메모 팔로우 조회</t>
+  </si>
+  <si>
+    <t>메모 팔로우 조회(user, owner)</t>
+  </si>
+  <si>
+    <t>메모 팔로우 조회(요청, 관리)</t>
+  </si>
+  <si>
+    <t>특정 일정 검색 (Front에서 해결)</t>
+  </si>
+  <si>
+    <t>공유 일정 조회</t>
+  </si>
+  <si>
+    <t>일정 팔로우 조회(요청, 관리)</t>
+  </si>
+  <si>
+    <t>공유 루틴 조회</t>
+  </si>
+  <si>
+    <t>루틴 기록 조회</t>
+  </si>
+  <si>
+    <t>특정 루틴 검색 (Front에서 해결)</t>
+  </si>
+  <si>
+    <t>루틴 팔로우 조회(요청, 관리)</t>
+  </si>
+  <si>
+    <t>내 그룹 조회(Owern</t>
+  </si>
+  <si>
+    <t>그룹 팔로우 조회(요청, 관리)</t>
+  </si>
+  <si>
+    <t>내 그룹 조회(Owner)</t>
+  </si>
+  <si>
+    <t>내 그룹 조회(Owner,user)</t>
+  </si>
+  <si>
+    <t>특정 그룹 조회(위에 것과 같이 그룹조회로 합침)</t>
+  </si>
+  <si>
+    <t>그룹 잠금(수정,삭제X)</t>
+  </si>
+  <si>
+    <t>그룹 접근 권한 설정</t>
+  </si>
+  <si>
+    <t>그룹 조회(Owner,user,other)</t>
+  </si>
+  <si>
+    <t>특정 그룹 조회 (Front에서 해결)</t>
+  </si>
+  <si>
+    <t>특정 알람 검색 (Front에서 해결)</t>
+  </si>
+  <si>
+    <t>알람 조회(Owner,User)</t>
+  </si>
+  <si>
+    <t>알람 조회(User)</t>
+  </si>
+  <si>
+    <t>알람 방식 설정(앱/웹,톡,메일,문자)</t>
+  </si>
+  <si>
+    <t>루틴 알람 반복 설정</t>
+  </si>
+  <si>
+    <t>알람 수정(방식, 반복, 시간)</t>
+  </si>
+  <si>
+    <t>알람 상태 변경</t>
   </si>
 </sst>
 </file>
@@ -504,7 +633,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,8 +835,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -888,6 +1023,26 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1038,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1316,45 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1480,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B76" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1523,702 +1717,808 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13"/>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="4" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="18"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="13"/>
-      <c r="B31" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="13"/>
-      <c r="B40" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="18"/>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="13"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="13"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="13"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="13"/>
-      <c r="B47" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="B47" s="18"/>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="A51" s="13"/>
       <c r="B51" s="12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="4" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
       <c r="C54" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="13"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="B56" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
       <c r="C60" s="4" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
       <c r="C61" s="4" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="4" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="13"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C63" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="13"/>
-      <c r="B64" s="24"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="13"/>
-      <c r="B65" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A69" s="13"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="4" t="s">
-        <v>82</v>
+      <c r="B70" s="18"/>
+      <c r="C70" s="46" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="4" t="s">
-        <v>83</v>
+      <c r="B71" s="24"/>
+      <c r="C71" s="46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="C77" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A79" s="13"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="13"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="13"/>
-      <c r="B81" s="18"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="4" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="53" t="s">
+        <v>33</v>
+      </c>
       <c r="C82" s="4" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="24"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="4" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="13"/>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="3"/>
+      <c r="C86" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="40" t="s">
+      <c r="C95" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B97" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="4" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="40"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="4" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="4" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="40"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="29"/>
-      <c r="B90" s="12" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="29"/>
+      <c r="B101" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="3" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="29"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="3" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="0"/>
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:A19"/>
+  <mergeCells count="31">
+    <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A35:A50"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A51:A68"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A38:A55"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B44:B50"/>
     <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A56:A76"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/8.기능정리.xlsx
+++ b/8.기능정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50664"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정리" sheetId="1" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,9 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2285,7 +2282,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -2293,7 +2290,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="B83" s="53"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="4" t="s">
         <v>152</v>
       </c>
@@ -2475,16 +2472,6 @@
       <c r="C106" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="0"/>
-      <c r="B107" s="0"/>
-      <c r="C107" s="0"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="31">
